--- a/data/trans_dic/P6901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>67,87; 90,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>38,07; 91,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>29,35; 79,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>66,3; 95,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>49,11; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>69,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>30,12; 93,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>73,15; 91,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>55,66; 91,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>52,11; 85,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>43,91; 95,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,73%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>62,36; 79,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>65,96; 84,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>70,85; 88,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>67,49; 92,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>63,86; 84,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>67,96; 88,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>81,5; 97,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>49,04; 77,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>66,44; 78,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>70,15; 84,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>77,85; 90,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>63,3; 82,36</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,98%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>60,34; 76,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>60,11; 78,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>69,4; 85,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>66,73; 84,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>68,05; 87,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>65,73; 86,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>71,79; 90,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>71,45; 86,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>66,07; 79,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>66,77; 80,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>73,71; 85,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>70,46; 83,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>68,52; 83,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>66,31; 85,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>55,27; 75,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>57,22; 74,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>68,64; 92,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>48,96; 79,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>67,0; 89,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>64,12; 84,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>71,22; 84,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>64,43; 80,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>62,76; 78,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>65,48; 78,85</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,51%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,02%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>78,87; 97,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>60,09; 86,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>65,0; 90,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>55,26; 78,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>36,22; 86,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>74,13; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>69,62; 96,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>73,79; 89,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>74,14; 92,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>70,11; 89,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>70,96; 89,79</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>65,99; 80,55</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,3%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>11,71; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>27,28; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>39,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,67%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>70,82; 79,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>69,03; 78,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>69,24; 79,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,72; 77,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>72,29; 83,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>70,59; 83,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>79,3; 89,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,93; 80,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,44; 79,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>71,93; 79,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>75,14; 82,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>71,17; 78,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>66,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>69,76%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>83,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>76,55%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>69,76%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,01%</t>
+          <t>76,24%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 93,24</t>
+          <t>27,28; 92,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,91; 95,58</t>
+          <t>41,19; 94,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>82,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,49; 92,5</t>
+          <t>67,14; 92,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,04; 77,93</t>
+          <t>49,13; 77,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>63,3; 82,36</t>
+          <t>63,59; 82,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,79%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>77,98%</t>
+          <t>77,71%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,73; 84,88</t>
+          <t>66,75; 84,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,45; 86,65</t>
+          <t>70,81; 86,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,46; 83,11</t>
+          <t>70,21; 82,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>65,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>75,1%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,22; 74,95</t>
+          <t>56,11; 74,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,12; 84,93</t>
+          <t>71,31; 91,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>65,48; 78,85</t>
+          <t>68,71; 83,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>73,99%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,26; 78,04</t>
+          <t>55,26; 77,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,79; 89,01</t>
+          <t>73,74; 88,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>65,99; 80,55</t>
+          <t>66,03; 80,49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>77,6%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 100,0</t>
+          <t>13,02; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,28; 100,0</t>
+          <t>27,46; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>39,39; 100,0</t>
+          <t>40,14; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>74,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>77,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>75,99%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>74,67%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75,07%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>74,3%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>74,51%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>72,75%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>77,95%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>78,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>84,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77,99%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>75,99%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75,76%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>78,5%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>75,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>70,82; 79,11</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>69,03; 78,99</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>69,24; 79,25</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>67,72; 77,96</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>67,25; 77,6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>72,29; 83,31</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>70,59; 83,34</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>79,3; 89,87</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>69,93; 80,55</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>72,27; 83,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>72,44; 79,05</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>71,93; 79,27</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>75,14; 82,04</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>71,17; 78,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>71,73; 79,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P6901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>67,87; 90,45</t>
+          <t>68,98; 90,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,07; 91,92</t>
+          <t>41,72; 92,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,35; 79,67</t>
+          <t>29,25; 79,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,3; 95,5</t>
+          <t>62,51; 95,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,11; 100,0</t>
+          <t>45,11; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,0; 100,0</t>
+          <t>61,39; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,28; 92,2</t>
+          <t>24,48; 91,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,15; 91,36</t>
+          <t>72,42; 90,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,66; 91,42</t>
+          <t>55,39; 91,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,11; 85,2</t>
+          <t>47,85; 84,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 94,9</t>
+          <t>44,08; 94,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,36; 79,44</t>
+          <t>63,8; 79,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,96; 84,8</t>
+          <t>66,78; 84,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,85; 88,81</t>
+          <t>71,34; 89,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,14; 92,55</t>
+          <t>66,17; 92,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,86; 84,21</t>
+          <t>63,13; 83,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,96; 88,19</t>
+          <t>65,89; 87,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,5; 97,93</t>
+          <t>79,88; 97,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,13; 77,96</t>
+          <t>50,05; 77,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,44; 78,69</t>
+          <t>66,75; 78,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>70,15; 84,02</t>
+          <t>69,78; 83,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>77,85; 90,74</t>
+          <t>78,14; 90,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>63,59; 82,57</t>
+          <t>63,37; 83,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,34; 76,22</t>
+          <t>60,37; 76,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,11; 78,51</t>
+          <t>57,94; 78,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,4; 85,07</t>
+          <t>69,16; 85,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,75; 84,75</t>
+          <t>67,19; 85,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,05; 87,5</t>
+          <t>67,5; 87,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,73; 86,6</t>
+          <t>68,18; 87,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,79; 90,77</t>
+          <t>72,07; 89,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,81; 86,29</t>
+          <t>70,37; 86,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,07; 79,12</t>
+          <t>65,25; 78,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,77; 80,41</t>
+          <t>66,38; 79,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>73,71; 85,33</t>
+          <t>73,21; 85,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,21; 82,9</t>
+          <t>71,16; 84,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,52; 83,96</t>
+          <t>67,32; 83,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,31; 85,46</t>
+          <t>65,61; 84,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,27; 75,11</t>
+          <t>53,84; 74,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,11; 74,04</t>
+          <t>55,8; 74,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,64; 92,09</t>
+          <t>67,93; 94,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 79,76</t>
+          <t>49,97; 79,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 89,18</t>
+          <t>68,27; 89,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,31; 91,71</t>
+          <t>71,55; 91,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,22; 84,91</t>
+          <t>70,16; 84,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,43; 80,47</t>
+          <t>64,39; 81,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62,76; 78,53</t>
+          <t>63,0; 79,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,71; 83,64</t>
+          <t>67,56; 83,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,87; 97,87</t>
+          <t>77,63; 96,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,09; 86,19</t>
+          <t>60,09; 85,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,0; 90,0</t>
+          <t>63,34; 90,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55,26; 77,96</t>
+          <t>55,87; 77,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,22; 86,11</t>
+          <t>35,79; 85,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,13; 100,0</t>
+          <t>73,61; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,62; 96,42</t>
+          <t>67,23; 96,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>73,74; 88,93</t>
+          <t>73,46; 88,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>74,14; 92,01</t>
+          <t>73,72; 92,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>70,11; 89,66</t>
+          <t>70,67; 88,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,96; 89,79</t>
+          <t>70,82; 90,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,03; 80,49</t>
+          <t>66,9; 80,67</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 100,0</t>
+          <t>26,51; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,14; 100,0</t>
+          <t>45,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,11</t>
+          <t>70,83; 78,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,03; 78,99</t>
+          <t>69,29; 79,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69,24; 79,25</t>
+          <t>69,64; 79,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>67,25; 77,6</t>
+          <t>67,51; 77,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>72,29; 83,31</t>
+          <t>71,88; 83,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,34</t>
+          <t>71,79; 83,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,3; 89,87</t>
+          <t>79,06; 88,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,27; 83,92</t>
+          <t>72,4; 84,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,05</t>
+          <t>72,42; 79,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>71,93; 79,27</t>
+          <t>71,98; 79,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>75,14; 82,04</t>
+          <t>74,75; 82,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>71,73; 79,68</t>
+          <t>71,84; 79,81</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores en la espalda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38002</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7524</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9275</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17044</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8078</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10276</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>55046</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15602</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20086</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16265</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31849; 41959</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4309; 9516</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5017; 13655</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3818; 5989</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12414; 18960</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4536; 10056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7147; 11643</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3757; 14055</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47818; 59989</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11289; 18595</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13777; 24412</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9405; 20233</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>102606</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66235</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66705</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48645</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>52134</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42536</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31980</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>161841</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>118369</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109241</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>80625</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>90788; 113233</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57621; 73076</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58190; 72861</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39088; 54536</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50049; 66153</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43536; 57926</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36977; 45347</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25001; 38797</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>147894; 174648</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>106322; 127444</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>99909; 116280</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>69086; 90595</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86543</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68381</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88363</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73275</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55560</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57232</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59022</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59674</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>142103</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125613</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>147385</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>132950</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76083; 96509</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>56709; 76375</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>78236; 96505</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>64184; 81562</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47282; 61266</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49518; 63310</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51498; 64108</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53163; 65317</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>127945; 154028</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>113177; 135560</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>135132; 158341</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>121749; 143820</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>85013</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69165</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60080</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71313</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30801</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45021</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>126586</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>115814</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95861</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>105101</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>197899</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74796; 92992</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59162; 76269</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49226; 68406</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60570; 81193</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25158; 34863</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20150; 31965</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38305; 50141</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110871; 141036</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>103939; 125400</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84023; 105754</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>92943; 117563</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>178025; 219953</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41592</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>32070</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35439</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8936</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22523</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26366</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45396</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>50527</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>54593</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>61804</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90971</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35620; 44437</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25777; 36886</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28409; 40508</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>37675; 52176</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4979; 11943</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18094; 24582</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20706; 29682</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40775; 49341</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44078; 55232</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47689; 59780</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>53575; 68121</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>82250; 99178</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1880</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>381; 2923</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>772; 2914</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1880</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2635; 5836</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>354578</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>243376</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>260795</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>246977</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>183756</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>276261</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>526154</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>410038</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>444551</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>523238</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>334550; 372165</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>226963; 260196</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>243733; 277615</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>229201; 264426</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>158216; 182869</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>153383; 178952</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>171011; 192299</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>256445; 297888</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>501482; 549421</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>389548; 431185</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>423295; 464402</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>498342; 553674</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>